--- a/src/main/resources/testdata/Check_DeleteButton_Disabled_RNAiNomEvidence.xlsx
+++ b/src/main/resources/testdata/Check_DeleteButton_Disabled_RNAiNomEvidence.xlsx
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
